--- a/earlywarning-pom/Document/test/RETAIL/Unit Test_Rapporto avanzamento non regression test App2.0_Retail_Dettaglio.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/Unit Test_Rapporto avanzamento non regression test App2.0_Retail_Dettaglio.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="96">
   <si>
     <t>COLOR_APP</t>
   </si>
@@ -27,9 +27,6 @@
     <t>check color</t>
   </si>
   <si>
-    <t>Conteggio_record</t>
-  </si>
-  <si>
     <t>S01</t>
   </si>
   <si>
@@ -174,21 +171,6 @@
     <t>RESULT_MODULE_01</t>
   </si>
   <si>
-    <t>check_COLOR</t>
-  </si>
-  <si>
-    <t>Conteggio_Nopg</t>
-  </si>
-  <si>
-    <t>Conteggio_SGR</t>
-  </si>
-  <si>
-    <t>Conteggio_SGR1</t>
-  </si>
-  <si>
-    <t>Conteggio_SGR2</t>
-  </si>
-  <si>
     <t>SEMAFORO_SGR_SOC_ISP</t>
   </si>
   <si>
@@ -246,9 +228,6 @@
     <t>SEMAFORO_SGR_GARSOFF 1.0</t>
   </si>
   <si>
-    <t>SEMAFORO_RATE_IMPAGATE (1.0</t>
-  </si>
-  <si>
     <t>SEMAFORO_RATE_CC 1.0</t>
   </si>
   <si>
@@ -292,6 +271,42 @@
   </si>
   <si>
     <t>check_covenant</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>SEMAFORO_RATE_IMPAGATE 1.0</t>
+  </si>
+  <si>
+    <t>check_CRAFI_XRA_BIFA_MODEL</t>
+  </si>
+  <si>
+    <t>calcolare il colore dati di mercato, indipendentemente dal fatto che siano in perimetro e non</t>
+  </si>
+  <si>
+    <t>SUB_NEW</t>
+  </si>
+  <si>
+    <t>SUB_OLD</t>
+  </si>
+  <si>
+    <t>CHECK_DS</t>
+  </si>
+  <si>
+    <t>DS03</t>
+  </si>
+  <si>
+    <t>DS01</t>
+  </si>
+  <si>
+    <t>DS02</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
@@ -383,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -392,7 +407,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -401,11 +415,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -686,17 +702,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q184"/>
+  <dimension ref="B2:Q186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.21875" customWidth="1"/>
-    <col min="2" max="2" width="33" style="9" customWidth="1"/>
-    <col min="3" max="5" width="33" customWidth="1"/>
+    <col min="2" max="2" width="33" style="8" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="33" style="8" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="10" width="31.44140625" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -706,27 +724,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>62</v>
+      <c r="B2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="C3" s="1">
         <v>5175807</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>63</v>
+      <c r="B5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
@@ -734,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
@@ -749,13 +767,13 @@
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="8">
-        <v>3796719</v>
+        <v>2</v>
+      </c>
+      <c r="D7" s="17">
+        <v>4022071</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -767,13 +785,13 @@
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>609252</v>
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>635665</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -785,13 +803,13 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1">
-        <v>336895</v>
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>362524</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -803,13 +821,13 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1">
-        <v>183098</v>
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>186956</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -821,13 +839,13 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
-        <v>788</v>
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>809</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -839,16 +857,19 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>249055</v>
+        <v>3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>249040</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>87</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -856,13 +877,13 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
-        <v>28</v>
+      <c r="B13" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="4">
+      <c r="D13" s="9">
         <f>SUM(D7:D12)</f>
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="E13" s="4"/>
       <c r="N13" s="5"/>
@@ -871,9 +892,9 @@
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="6"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -881,11 +902,11 @@
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>63</v>
+      <c r="B15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -894,16 +915,16 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -912,13 +933,13 @@
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3837749</v>
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4056462</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -930,13 +951,13 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1">
-        <v>735644</v>
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>764707</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -948,13 +969,13 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1">
-        <v>338623</v>
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>367575</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -966,13 +987,13 @@
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1">
-        <v>263791</v>
+        <v>6</v>
+      </c>
+      <c r="D20" s="3">
+        <v>268321</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -983,13 +1004,13 @@
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
-        <v>28</v>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4">
+      <c r="D21" s="9">
         <f>SUM(D16:D20)</f>
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="E21" s="4"/>
       <c r="N21" s="5"/>
@@ -998,9 +1019,9 @@
       <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="6"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -1008,36 +1029,36 @@
       <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>63</v>
+      <c r="B23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4919268</v>
+        <v>11</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5200430</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1045,13 +1066,13 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1">
-        <v>7483</v>
+        <v>6</v>
+      </c>
+      <c r="D26" s="3">
+        <v>7594</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1059,12 +1080,12 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3">
         <v>1</v>
       </c>
       <c r="E27" s="1">
@@ -1073,96 +1094,104 @@
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="1">
-        <v>249055</v>
+        <v>3</v>
+      </c>
+      <c r="D28" s="3">
+        <v>249040</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="10" t="s">
-        <v>28</v>
+      <c r="B29" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="4">
+      <c r="D29" s="9">
         <f>SUM(D24:D28)</f>
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="11"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="15"/>
+      <c r="B31" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="16"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>90</v>
+      <c r="B32" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="16">
+      <c r="B33" s="14">
         <v>0</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="15">
         <v>0</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="14">
         <v>0</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="15">
         <v>0</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="15">
         <v>0</v>
       </c>
-      <c r="G33" s="17">
-        <v>5175807</v>
-      </c>
-      <c r="H33" s="17">
+      <c r="G33" s="15">
+        <v>5457065</v>
+      </c>
+      <c r="H33" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B34" s="11"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="B34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="9">
+        <f>SUM(G33)</f>
+        <v>5457065</v>
+      </c>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N35" s="5"/>
@@ -1171,11 +1200,11 @@
       <c r="Q35" s="5"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B36" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>63</v>
+      <c r="B36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -1184,16 +1213,16 @@
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
@@ -1202,13 +1231,13 @@
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="1">
-        <v>4903031</v>
+        <v>2</v>
+      </c>
+      <c r="D38" s="3">
+        <v>5133792</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -1216,13 +1245,13 @@
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="1">
-        <v>65357</v>
+        <v>5</v>
+      </c>
+      <c r="D39" s="3">
+        <v>96248</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -1230,13 +1259,13 @@
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="1">
-        <v>203198</v>
+        <v>6</v>
+      </c>
+      <c r="D40" s="3">
+        <v>222782</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -1244,35 +1273,35 @@
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1">
-        <v>4221</v>
+        <v>7</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4243</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B42" s="10" t="s">
-        <v>28</v>
+      <c r="B42" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="4">
+      <c r="D42" s="9">
         <f>SUM(D38:D41)</f>
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="E42" s="4"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B44" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>63</v>
+      <c r="B44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -1281,16 +1310,16 @@
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -1299,13 +1328,13 @@
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="1">
-        <v>5106649</v>
+        <v>2</v>
+      </c>
+      <c r="D46" s="3">
+        <v>5386602</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -1317,13 +1346,13 @@
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="1">
-        <v>7766</v>
+        <v>5</v>
+      </c>
+      <c r="D47" s="3">
+        <v>7913</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -1335,60 +1364,60 @@
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="1">
-        <v>61392</v>
+        <v>6</v>
+      </c>
+      <c r="D48" s="3">
+        <v>62550</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="10" t="s">
-        <v>28</v>
+      <c r="B49" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C49" s="4"/>
-      <c r="D49" s="4">
+      <c r="D49" s="9">
         <f>SUM(D45:D48)</f>
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="E49" s="4"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>63</v>
+      <c r="B51" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="1">
-        <v>5159345</v>
+        <v>2</v>
+      </c>
+      <c r="D53" s="3">
+        <v>5440418</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -1396,13 +1425,13 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="1">
-        <v>132</v>
+        <v>5</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1375</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -1410,13 +1439,13 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="1">
-        <v>10921</v>
+        <v>6</v>
+      </c>
+      <c r="D55" s="3">
+        <v>11029</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -1424,26 +1453,26 @@
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="1">
-        <v>4221</v>
+        <v>7</v>
+      </c>
+      <c r="D56" s="3">
+        <v>4243</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="10" t="s">
-        <v>28</v>
+      <c r="B57" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C57" s="4"/>
-      <c r="D57" s="4">
+      <c r="D57" s="9">
         <f>SUM(D53:D56)</f>
-        <v>5174619</v>
+        <v>5457065</v>
       </c>
       <c r="E57" s="4"/>
     </row>
@@ -1454,11 +1483,11 @@
       <c r="K58" s="2"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>63</v>
+      <c r="B59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -1467,16 +1496,16 @@
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -1485,13 +1514,13 @@
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="1">
-        <v>5174503</v>
+        <v>2</v>
+      </c>
+      <c r="D61" s="3">
+        <v>5455749</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -1503,13 +1532,13 @@
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1304</v>
+        <v>6</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1316</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -1520,47 +1549,47 @@
       <c r="K62" s="5"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="10" t="s">
-        <v>28</v>
+      <c r="B63" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C63" s="4"/>
-      <c r="D63" s="4">
+      <c r="D63" s="9">
         <f>SUM(D59:D62)</f>
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="E63" s="4"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>63</v>
+      <c r="B65" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="1">
-        <v>5171586</v>
+        <v>2</v>
+      </c>
+      <c r="D67" s="3">
+        <v>5452822</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -1568,115 +1597,115 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="1">
-        <v>4221</v>
+        <v>7</v>
+      </c>
+      <c r="D68" s="3">
+        <v>4243</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="10" t="s">
-        <v>28</v>
+      <c r="B69" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C69" s="4"/>
-      <c r="D69" s="4">
+      <c r="D69" s="9">
         <f>SUM(D65:D68)</f>
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B70" s="11"/>
+      <c r="B70" s="10"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
+      <c r="D70" s="10"/>
       <c r="E70" s="6"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B71" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D71" s="6"/>
+      <c r="B71" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="10"/>
       <c r="E71" s="6"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="1">
-        <v>5175807</v>
+        <v>2</v>
+      </c>
+      <c r="D73" s="3">
+        <v>5457065</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="10" t="s">
-        <v>28</v>
+      <c r="B74" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C74" s="4"/>
-      <c r="D74" s="4">
+      <c r="D74" s="9">
         <f>SUM(D70:D73)</f>
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="E74" s="4"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B76" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>63</v>
+      <c r="B76" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="1">
-        <v>5164295</v>
+        <v>2</v>
+      </c>
+      <c r="D78" s="3">
+        <v>5445444</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -1684,60 +1713,60 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" s="1">
-        <v>11512</v>
+        <v>6</v>
+      </c>
+      <c r="D79" s="3">
+        <v>11621</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B80" s="10" t="s">
-        <v>28</v>
+      <c r="B80" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C80" s="4"/>
-      <c r="D80" s="4">
+      <c r="D80" s="9">
         <f>SUM(D76:D79)</f>
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="E80" s="4"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>63</v>
+      <c r="B82" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="1">
-        <v>4992179</v>
+        <v>2</v>
+      </c>
+      <c r="D84" s="3">
+        <v>5279009</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -1745,13 +1774,13 @@
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="1">
-        <v>44335</v>
+        <v>5</v>
+      </c>
+      <c r="D85" s="3">
+        <v>39472</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
@@ -1759,60 +1788,60 @@
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="1">
-        <v>139293</v>
+        <v>6</v>
+      </c>
+      <c r="D86" s="3">
+        <v>138584</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="10" t="s">
-        <v>28</v>
+      <c r="B87" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C87" s="4"/>
-      <c r="D87" s="4">
+      <c r="D87" s="9">
         <f>SUM(D83:D86)</f>
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="E87" s="4"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>63</v>
+      <c r="B89" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="1">
-        <v>5065261</v>
+        <v>2</v>
+      </c>
+      <c r="D91" s="3">
+        <v>5352054</v>
       </c>
       <c r="E91" s="1">
         <v>1</v>
@@ -1820,13 +1849,13 @@
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="1">
-        <v>26886</v>
+        <v>5</v>
+      </c>
+      <c r="D92" s="3">
+        <v>2207</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -1834,60 +1863,60 @@
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" s="1">
-        <v>83660</v>
+        <v>6</v>
+      </c>
+      <c r="D93" s="3">
+        <v>82941</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B94" s="10" t="s">
-        <v>28</v>
+      <c r="B94" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C94" s="4"/>
-      <c r="D94" s="4">
+      <c r="D94" s="9">
         <f>SUM(D90:D93)</f>
-        <v>5175807</v>
+        <v>5437202</v>
       </c>
       <c r="E94" s="4"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B96" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>63</v>
+      <c r="B96" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" s="1">
-        <v>5100583</v>
+        <v>2</v>
+      </c>
+      <c r="D98" s="3">
+        <v>5381932</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
@@ -1895,13 +1924,13 @@
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" s="1">
-        <v>18206</v>
+        <v>5</v>
+      </c>
+      <c r="D99" s="3">
+        <v>18127</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
@@ -1909,60 +1938,60 @@
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" s="1">
-        <v>57018</v>
+        <v>6</v>
+      </c>
+      <c r="D100" s="3">
+        <v>57006</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B101" s="10" t="s">
-        <v>28</v>
+      <c r="B101" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C101" s="4"/>
-      <c r="D101" s="4">
+      <c r="D101" s="9">
         <f>SUM(D97:D100)</f>
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="E101" s="4"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B103" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>63</v>
+      <c r="B103" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B105" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="1">
-        <v>5147815</v>
+        <v>2</v>
+      </c>
+      <c r="D105" s="3">
+        <v>5429117</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -1970,13 +1999,13 @@
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" s="1">
-        <v>11829</v>
+        <v>5</v>
+      </c>
+      <c r="D106" s="3">
+        <v>11799</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -1984,60 +2013,60 @@
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" s="1">
-        <v>16163</v>
+        <v>6</v>
+      </c>
+      <c r="D107" s="3">
+        <v>16149</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B108" s="10" t="s">
-        <v>28</v>
+      <c r="B108" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C108" s="4"/>
-      <c r="D108" s="4">
+      <c r="D108" s="9">
         <f>SUM(D104:D107)</f>
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="E108" s="4"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B110" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>63</v>
+      <c r="B110" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D112" s="1">
-        <v>5164494</v>
+        <v>2</v>
+      </c>
+      <c r="D112" s="3">
+        <v>5377567</v>
       </c>
       <c r="E112" s="1">
         <v>1</v>
@@ -2045,13 +2074,13 @@
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D113" s="1">
-        <v>5771</v>
+        <v>5</v>
+      </c>
+      <c r="D113" s="3">
+        <v>48962</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -2059,60 +2088,60 @@
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114" s="1">
-        <v>5542</v>
+        <v>6</v>
+      </c>
+      <c r="D114" s="3">
+        <v>30536</v>
       </c>
       <c r="E114" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B115" s="10" t="s">
-        <v>28</v>
+      <c r="B115" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C115" s="4"/>
-      <c r="D115" s="4">
+      <c r="D115" s="9">
         <f>SUM(D111:D114)</f>
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="E115" s="4"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B117" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>63</v>
+      <c r="B117" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B119" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D119" s="1">
-        <v>5175599</v>
+        <v>2</v>
+      </c>
+      <c r="D119" s="3">
+        <v>5456927</v>
       </c>
       <c r="E119" s="1">
         <v>1</v>
@@ -2120,60 +2149,60 @@
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D120" s="1">
-        <v>208</v>
+        <v>6</v>
+      </c>
+      <c r="D120" s="3">
+        <v>138</v>
       </c>
       <c r="E120" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B121" s="10" t="s">
-        <v>28</v>
+      <c r="B121" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C121" s="4"/>
-      <c r="D121" s="4">
+      <c r="D121" s="9">
         <f>SUM(D117:D120)</f>
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="E121" s="4"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B123" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>63</v>
+      <c r="B123" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B125" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D125" s="1">
-        <v>5174313</v>
+        <v>2</v>
+      </c>
+      <c r="D125" s="3">
+        <v>5455513</v>
       </c>
       <c r="E125" s="1">
         <v>1</v>
@@ -2181,13 +2210,13 @@
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B126" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D126" s="1">
-        <v>1326</v>
+        <v>5</v>
+      </c>
+      <c r="D126" s="3">
+        <v>1381</v>
       </c>
       <c r="E126" s="1">
         <v>1</v>
@@ -2195,64 +2224,64 @@
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B127" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D127" s="1">
-        <v>168</v>
+        <v>6</v>
+      </c>
+      <c r="D127" s="3">
+        <v>171</v>
       </c>
       <c r="E127" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B128" s="10" t="s">
-        <v>28</v>
+      <c r="B128" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C128" s="4"/>
-      <c r="D128" s="4">
+      <c r="D128" s="9">
         <f>SUM(D124:D127)</f>
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="E128" s="4"/>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B130" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>63</v>
+      <c r="B130" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B132" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D132" s="1">
-        <v>4591182</v>
+        <v>2</v>
+      </c>
+      <c r="D132" s="3">
+        <v>4803275</v>
       </c>
       <c r="E132" s="1">
         <v>1</v>
@@ -2260,13 +2289,13 @@
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B133" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D133" s="1">
-        <v>234402</v>
+        <v>5</v>
+      </c>
+      <c r="D133" s="3">
+        <v>307705</v>
       </c>
       <c r="E133" s="1">
         <v>1</v>
@@ -2274,60 +2303,60 @@
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B134" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D134" s="1">
-        <v>350223</v>
+        <v>6</v>
+      </c>
+      <c r="D134" s="3">
+        <v>346085</v>
       </c>
       <c r="E134" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B135" s="10" t="s">
-        <v>28</v>
+      <c r="B135" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C135" s="4"/>
-      <c r="D135" s="4">
+      <c r="D135" s="9">
         <f>SUM(D131:D134)</f>
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="E135" s="4"/>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B137" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>63</v>
+      <c r="B137" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B138" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B139" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="1">
-        <v>578507</v>
+        <v>11</v>
+      </c>
+      <c r="D139" s="3">
+        <v>625211</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
@@ -2335,13 +2364,13 @@
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B140" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D140" s="1">
-        <v>3193467</v>
+        <v>2</v>
+      </c>
+      <c r="D140" s="3">
+        <v>3393133</v>
       </c>
       <c r="E140" s="1">
         <v>1</v>
@@ -2349,13 +2378,13 @@
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B141" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D141" s="1">
-        <v>641802</v>
+        <v>4</v>
+      </c>
+      <c r="D141" s="3">
+        <v>652451</v>
       </c>
       <c r="E141" s="1">
         <v>1</v>
@@ -2363,13 +2392,13 @@
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B142" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D142" s="1">
-        <v>449629</v>
+        <v>5</v>
+      </c>
+      <c r="D142" s="3">
+        <v>470065</v>
       </c>
       <c r="E142" s="1">
         <v>1</v>
@@ -2377,60 +2406,60 @@
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D143" s="1">
-        <v>312402</v>
+        <v>6</v>
+      </c>
+      <c r="D143" s="3">
+        <v>316205</v>
       </c>
       <c r="E143" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B144" s="10" t="s">
-        <v>28</v>
+      <c r="B144" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C144" s="4"/>
-      <c r="D144" s="4">
+      <c r="D144" s="9">
         <f>SUM(D139:D143)</f>
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="E144" s="4"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B146" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>63</v>
+      <c r="B146" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B147" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B148" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="1">
-        <v>1005939</v>
+        <v>11</v>
+      </c>
+      <c r="D148" s="3">
+        <v>1057215</v>
       </c>
       <c r="E148" s="1">
         <v>1</v>
@@ -2438,13 +2467,13 @@
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B149" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D149" s="1">
-        <v>2482505</v>
+        <v>2</v>
+      </c>
+      <c r="D149" s="3">
+        <v>2624009</v>
       </c>
       <c r="E149" s="1">
         <v>1</v>
@@ -2452,13 +2481,13 @@
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D150" s="1">
-        <v>599559</v>
+        <v>4</v>
+      </c>
+      <c r="D150" s="3">
+        <v>628366</v>
       </c>
       <c r="E150" s="1">
         <v>1</v>
@@ -2466,60 +2495,60 @@
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B151" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D151" s="1">
-        <v>1087804</v>
+        <v>5</v>
+      </c>
+      <c r="D151" s="3">
+        <v>1147475</v>
       </c>
       <c r="E151" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B152" s="10" t="s">
-        <v>28</v>
+      <c r="B152" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C152" s="4"/>
-      <c r="D152" s="4">
+      <c r="D152" s="9">
         <f>SUM(D148:D151)</f>
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="E152" s="4"/>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B154" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>63</v>
+      <c r="B154" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B155" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>2</v>
+      <c r="D155" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B156" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D156" s="1">
-        <v>3837749</v>
+        <v>2</v>
+      </c>
+      <c r="D156" s="3">
+        <v>4056462</v>
       </c>
       <c r="E156" s="1">
         <v>1</v>
@@ -2527,13 +2556,13 @@
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B157" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D157" s="1">
-        <v>735644</v>
+        <v>4</v>
+      </c>
+      <c r="D157" s="3">
+        <v>764707</v>
       </c>
       <c r="E157" s="1">
         <v>1</v>
@@ -2541,13 +2570,13 @@
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B158" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D158" s="1">
-        <v>338623</v>
+        <v>5</v>
+      </c>
+      <c r="D158" s="3">
+        <v>367575</v>
       </c>
       <c r="E158" s="1">
         <v>1</v>
@@ -2555,40 +2584,40 @@
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B159" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D159" s="1">
-        <v>263791</v>
+        <v>6</v>
+      </c>
+      <c r="D159" s="3">
+        <v>268321</v>
       </c>
       <c r="E159" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B160" s="10" t="s">
-        <v>28</v>
+      <c r="B160" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C160" s="4"/>
-      <c r="D160" s="4">
+      <c r="D160" s="9">
         <f>SUM(D156:D159)</f>
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="E160" s="4"/>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B162" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C162" s="13" t="s">
-        <v>48</v>
+      <c r="B162" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B163" s="1">
-        <v>5175807</v>
+      <c r="B163" s="7">
+        <v>5457065</v>
       </c>
       <c r="C163" s="1">
         <v>1</v>
@@ -2599,35 +2628,35 @@
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B165" s="4" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166" s="7">
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="C166" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B167" s="14"/>
-      <c r="C167" s="14"/>
+      <c r="B167" s="13"/>
+      <c r="C167" s="13"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B168" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C168" s="13" t="s">
-        <v>59</v>
+      <c r="B168" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B169" s="7">
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="C169" s="7">
         <v>1</v>
@@ -2638,16 +2667,16 @@
       <c r="C170" s="2"/>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B171" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C171" s="13" t="s">
-        <v>65</v>
+      <c r="B171" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B172" s="7">
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="C172" s="7">
         <v>1</v>
@@ -2657,16 +2686,16 @@
       <c r="B173"/>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B174" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C174" s="13" t="s">
-        <v>66</v>
+      <c r="B174" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B175" s="7">
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="C175" s="7">
         <v>1</v>
@@ -2675,40 +2704,114 @@
     <row r="176" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B176"/>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B177" s="13" t="s">
-        <v>2</v>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B177" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B178" s="7">
-        <v>5175807</v>
+        <v>5457065</v>
       </c>
       <c r="C178" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B180"/>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B181"/>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B182"/>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B183"/>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B184"/>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B180" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C180" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B181" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B182" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D182" s="1">
+        <v>4056462</v>
+      </c>
+      <c r="E182" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B183" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D183" s="1">
+        <v>268321</v>
+      </c>
+      <c r="E183" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B184" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D184" s="1">
+        <v>367575</v>
+      </c>
+      <c r="E184" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B185" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D185" s="1">
+        <v>764707</v>
+      </c>
+      <c r="E185" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B186" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C186" s="1"/>
+      <c r="D186" s="9">
+        <f>SUM(D182:D185)</f>
+        <v>5457065</v>
+      </c>
+      <c r="E186" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
